--- a/appendix/mean_recall_macro_rest.xlsx
+++ b/appendix/mean_recall_macro_rest.xlsx
@@ -525,7 +525,7 @@
         <v>0.434</v>
       </c>
       <c r="G3" t="n">
-        <v>0.388</v>
+        <v>0.39</v>
       </c>
       <c r="H3" t="n">
         <v>0.401</v>

--- a/appendix/mean_recall_macro_rest.xlsx
+++ b/appendix/mean_recall_macro_rest.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.417</v>
+        <v>0.427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.44</v>
+        <v>0.447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.471</v>
+        <v>0.479</v>
       </c>
       <c r="G5" t="n">
-        <v>0.431</v>
+        <v>0.46</v>
       </c>
       <c r="H5" t="n">
-        <v>0.449</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="6">
@@ -618,17 +618,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.417</v>
+        <v>0.427</v>
       </c>
       <c r="E7" t="n">
         <v>0.468</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.322</v>
+        <v>0.328</v>
       </c>
       <c r="D8" t="n">
-        <v>0.518</v>
+        <v>0.531</v>
       </c>
       <c r="E8" t="n">
-        <v>0.573</v>
+        <v>0.554</v>
       </c>
       <c r="F8" t="n">
-        <v>0.61</v>
+        <v>0.607</v>
       </c>
       <c r="G8" t="n">
-        <v>0.598</v>
+        <v>0.591</v>
       </c>
       <c r="H8" t="n">
-        <v>0.621</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.374</v>
+        <v>0.359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499</v>
+        <v>0.521</v>
       </c>
       <c r="D9" t="n">
-        <v>0.632</v>
+        <v>0.615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.66</v>
+        <v>0.631</v>
       </c>
       <c r="F9" t="n">
-        <v>0.676</v>
+        <v>0.673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.637</v>
+        <v>0.63</v>
       </c>
       <c r="H9" t="n">
-        <v>0.651</v>
+        <v>0.648</v>
       </c>
     </row>
   </sheetData>
